--- a/results.xlsx
+++ b/results.xlsx
@@ -8,13 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maggielu/Desktop/Maggie/ML Large Dataset/miniproject/LowLatencyInferenceImageClassification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834EBC57-CF45-DB49-8FD0-2083A3C0EF13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB54A6C-A913-A344-9795-BD79C773DF89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16000" xr2:uid="{E049B918-D4D2-3A42-84AC-29393B49E131}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="quantization" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">quantization!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">quantization!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">quantization!$D$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">quantization!$D$2:$D$8</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">quantization!$D$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">quantization!$D$2:$D$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">quantization!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">quantization!$C$2:$C$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">quantization!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">quantization!$D$2:$D$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">quantization!$C$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">quantization!$C$2:$C$8</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>model</t>
   </si>
@@ -58,6 +72,30 @@
   </si>
   <si>
     <t>quantize convolotion and others</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>activation min max observer, uint8. weights min max observer, int8.</t>
+  </si>
+  <si>
+    <t>fbgemm: activation HistogramObserver, uint8. weights PerChannelMinMaxObserver, int8.</t>
+  </si>
+  <si>
+    <t>qnnpack: activation HistogramObserver, uint8. weights MinMaxObserver, int8.</t>
+  </si>
+  <si>
+    <t>only linear layers, int8</t>
+  </si>
+  <si>
+    <t>only linear layers, float16</t>
+  </si>
+  <si>
+    <t>activation moving average min max observer, uint8. weights min max observer, int8.</t>
   </si>
 </sst>
 </file>
@@ -409,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48AE2756-F9CC-6C4F-8229-17E32CEDF565}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,13 +471,16 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
-        <v>136.56</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="C2">
         <v>136126.77299999999</v>
@@ -450,13 +491,16 @@
       <c r="E2">
         <v>0.102695152163505</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>127.85</v>
+        <v>139.61000000000001</v>
       </c>
       <c r="C3">
         <v>78277.297999999995</v>
@@ -467,22 +511,108 @@
       <c r="E3">
         <v>0.102704234421253</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>141.77000000000001</v>
+      </c>
+      <c r="C4">
+        <v>136129.07199999999</v>
+      </c>
+      <c r="D4">
+        <v>0.72009998559951705</v>
+      </c>
+      <c r="E4">
+        <v>0.102695144712924</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>63.51</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>34067.256999999998</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>0.71810001134872403</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>0.10290030390024101</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="C6">
+        <v>34276.184999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.71749997138976995</v>
+      </c>
+      <c r="E6">
+        <v>0.102797448635101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>67.569999999999993</v>
+      </c>
+      <c r="C7">
+        <v>34067.192999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.712000012397766</v>
+      </c>
+      <c r="E7">
+        <v>0.10577201843261699</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="C8">
+        <v>34067.252999999997</v>
+      </c>
+      <c r="D8">
+        <v>0.71960002183914096</v>
+      </c>
+      <c r="E8">
+        <v>0.10283544659614501</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
